--- a/modelos/OBAFAR4421408/OBAFAR4421408_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421408/OBAFAR4421408_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,61 +473,41 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B2" t="n">
+        <v>27.46521699112597</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18.02189468613145</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.64159396463752</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>45033</v>
-      </c>
-      <c r="B2" t="n">
-        <v>26.26526710902111</v>
-      </c>
-      <c r="C2" t="n">
-        <v>17.6510049951252</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.53728974272724</v>
-      </c>
-      <c r="E2" t="n">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45040</v>
+        <v>45061</v>
       </c>
       <c r="B3" t="n">
-        <v>27.30182041061662</v>
+        <v>27.41876445385136</v>
       </c>
       <c r="C3" t="n">
-        <v>19.46079877560552</v>
+        <v>18.70459826607786</v>
       </c>
       <c r="D3" t="n">
-        <v>35.41128432432905</v>
+        <v>36.69334293217399</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="B4" t="n">
-        <v>27.35055384563131</v>
-      </c>
-      <c r="C4" t="n">
-        <v>19.12278915128503</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35.26535209422304</v>
-      </c>
-      <c r="E4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="n">
         <v>45054</v>
       </c>
     </row>
@@ -597,25 +577,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>65.99463432231198</v>
+        <v>77.22106870453717</v>
       </c>
       <c r="C2" t="n">
-        <v>8.123708163290456</v>
+        <v>8.787551917601236</v>
       </c>
       <c r="D2" t="n">
-        <v>6.462369049075606</v>
+        <v>6.441990722488665</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3462105349933701</v>
+        <v>0.4225739445936744</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2040828148781483</v>
+        <v>0.4225739445936744</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2738813564907233</v>
+        <v>0.301307365209507</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAFAR4421408/OBAFAR4421408_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421408/OBAFAR4421408_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,41 +473,61 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="B2" t="n">
-        <v>27.46521699112597</v>
+        <v>25.99601146744264</v>
       </c>
       <c r="C2" t="n">
-        <v>18.02189468613145</v>
+        <v>17.45351461508817</v>
       </c>
       <c r="D2" t="n">
-        <v>36.64159396463752</v>
+        <v>34.48328144371355</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B3" t="n">
+        <v>27.08212922807704</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18.73180503212699</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.45501766872732</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="B3" t="n">
-        <v>27.41876445385136</v>
-      </c>
-      <c r="C3" t="n">
-        <v>18.70459826607786</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.69334293217399</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="B4" t="n">
+        <v>27.15609104992387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18.90253254259832</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.42018087227351</v>
+      </c>
+      <c r="E4" t="n">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F4" s="2" t="n">
         <v>45054</v>
       </c>
     </row>
@@ -577,25 +597,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>77.22106870453717</v>
+        <v>65.61105006277955</v>
       </c>
       <c r="C2" t="n">
-        <v>8.787551917601236</v>
+        <v>8.100064818430749</v>
       </c>
       <c r="D2" t="n">
-        <v>6.441990722488665</v>
+        <v>6.414069603519424</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4225739445936744</v>
+        <v>0.3418966566670666</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4225739445936744</v>
+        <v>0.2122420767441624</v>
       </c>
       <c r="G2" t="n">
-        <v>0.301307365209507</v>
+        <v>0.272398242624097</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAFAR4421408/OBAFAR4421408_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421408/OBAFAR4421408_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,61 +473,41 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B2" t="n">
+        <v>27.46521705790393</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18.64724390426004</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.40298767751968</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>45033</v>
-      </c>
-      <c r="B2" t="n">
-        <v>25.99601146744264</v>
-      </c>
-      <c r="C2" t="n">
-        <v>17.45351461508817</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.48328144371355</v>
-      </c>
-      <c r="E2" t="n">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45040</v>
+        <v>45061</v>
       </c>
       <c r="B3" t="n">
-        <v>27.08212922807704</v>
+        <v>27.41876445248167</v>
       </c>
       <c r="C3" t="n">
-        <v>18.73180503212699</v>
+        <v>19.09145312463248</v>
       </c>
       <c r="D3" t="n">
-        <v>35.45501766872732</v>
+        <v>36.36519861485282</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="B4" t="n">
-        <v>27.15609104992387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>18.90253254259832</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35.42018087227351</v>
-      </c>
-      <c r="E4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="n">
         <v>45054</v>
       </c>
     </row>
@@ -597,25 +577,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>65.61105006277955</v>
+        <v>77.22106871859363</v>
       </c>
       <c r="C2" t="n">
-        <v>8.100064818430749</v>
+        <v>8.78755191840103</v>
       </c>
       <c r="D2" t="n">
-        <v>6.414069603519424</v>
+        <v>6.441990755192805</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3418966566670666</v>
+        <v>0.4225739457846472</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2122420767441624</v>
+        <v>0.4225739457846472</v>
       </c>
       <c r="G2" t="n">
-        <v>0.272398242624097</v>
+        <v>0.3013073664022644</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
